--- a/docs/build_instructions_standard.xlsx
+++ b/docs/build_instructions_standard.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="407" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5A8602A-364C-412C-9DA8-9883DADB866D}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99212A8D-6D90-45A9-B91A-9B1E71954FA0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Female-female jumper wires</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>KY-016 indicator LED (10 pieces)</t>
-  </si>
-  <si>
-    <t>KY-040 rotary encoders (knobs) (5 pieces)</t>
   </si>
   <si>
     <t>M2.5 4mm thread + 6mm standoff screws (30 pieces)</t>
@@ -665,10 +662,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -682,7 +679,7 @@
         <v>50.23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -696,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,7 +707,7 @@
         <v>4.99</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -724,7 +721,7 @@
         <v>3.95</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -738,7 +735,7 @@
         <v>2.69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -752,7 +749,7 @@
         <v>4.32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -766,7 +763,7 @@
         <v>4.75</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -780,7 +777,7 @@
         <v>5.6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -794,7 +791,7 @@
         <v>5.89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,7 +805,7 @@
         <v>6.99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -822,7 +819,7 @@
         <v>7.99</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -833,7 +830,7 @@
         <v>117.39999999999996</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +856,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,7 +947,7 @@
         <v>16.5</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1047,7 +1044,7 @@
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
@@ -1116,24 +1113,25 @@
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="9">
-        <v>4</v>
+        <f>B2*2</f>
+        <v>20</v>
       </c>
       <c r="D13" s="5">
-        <v>2.11</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>8.44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>0.84399999999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1185,7 +1183,7 @@
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>20</v>
@@ -1205,7 +1203,7 @@
         <v>0.10900000000000001</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,10 +1214,10 @@
       <c r="E17" s="4"/>
       <c r="F17" s="11">
         <f>SUM(F5:F16)</f>
-        <v>60.222000000000008</v>
+        <v>60.478000000000009</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1231,7 @@
     <hyperlink ref="A15" r:id="rId7" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{F15FB45E-3203-4F2E-9725-87605B6ECD8B}"/>
     <hyperlink ref="A11" r:id="rId8" xr:uid="{0DC7749B-92C3-4CE4-B5B3-BBC86AC775DE}"/>
     <hyperlink ref="A12" r:id="rId9" display="KY-016 indicator LED" xr:uid="{6A8AA35F-6C88-4BD6-B333-FC1A2CEEC938}"/>
-    <hyperlink ref="A13" r:id="rId10" display="KY-040 rotary encoders (knobs)" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
     <hyperlink ref="A16" r:id="rId11" display="Sticky back rubber feet" xr:uid="{B28C07E5-84E2-4983-86EE-C1315391039F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/build_instructions_standard.xlsx
+++ b/docs/build_instructions_standard.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="412" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99212A8D-6D90-45A9-B91A-9B1E71954FA0}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8698AC21-18F1-4DB7-91ED-A501E6B9884F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="7" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>KY-016 indicator LED (10 pieces)</t>
   </si>
   <si>
-    <t>M2.5 4mm thread + 6mm standoff screws (30 pieces)</t>
-  </si>
-  <si>
     <t>+ tax + shipping</t>
   </si>
   <si>
@@ -142,15 +139,9 @@
     <t>Or buy Amazon B06XWN9Q99 or other 16GB+ card</t>
   </si>
   <si>
-    <t>Or Amazon B077Y149DL or other physically small USB drive</t>
-  </si>
-  <si>
     <t>Or buy Amazon B00SUIKMJ8 or other cable with right angle bend</t>
   </si>
   <si>
-    <t>Or buy Amazon B07KJYR8K1 or search Amazon for KY-016</t>
-  </si>
-  <si>
     <t>Or buy Amazon B06XQTHDRR</t>
   </si>
   <si>
@@ -163,7 +154,16 @@
     <t>Only needed for wood &lt; 6mm thick</t>
   </si>
   <si>
-    <t>Or laser cut it yourself for ~$22</t>
+    <t>Or Amazon B07MDXBT87 or other physically small USB drive</t>
+  </si>
+  <si>
+    <t>This is for a large kit of sensors. Or search KY-016, but note that almost all other sellers are in China.</t>
+  </si>
+  <si>
+    <t>Or order from Ponoko for ~$35</t>
+  </si>
+  <si>
+    <t>M2.5 6mm thread + 6mm standoff screws (100 pieces)</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,10 +662,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -676,10 +676,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>50.23</v>
+        <v>60.01</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -693,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -707,7 +707,7 @@
         <v>4.99</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -721,7 +721,7 @@
         <v>3.95</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>2.69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
         <v>4.32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -760,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -774,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>5.6</v>
+        <v>6.34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -788,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="5">
-        <v>5.89</v>
+        <v>5.59</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5">
-        <v>6.99</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>7.99</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -827,10 +827,10 @@
       <c r="B13" s="4"/>
       <c r="C13" s="11">
         <f>SUM(C2:C12)</f>
-        <v>117.39999999999996</v>
+        <v>138.82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -841,9 +841,9 @@
     <hyperlink ref="A6" r:id="rId4" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{B5CB0BD9-1755-4BCA-82AA-B620DFC77645}"/>
     <hyperlink ref="A7" r:id="rId5" display="https://www.newark.com/raf-electronic-hardware/m2102-2545-al/spacer-standoff-hex-aluminium/dp/27T7975?st=M2.5%20standoff" xr:uid="{F1FA4C82-9DB6-4D44-AEF0-A1FF9DA0D698}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{AE4ABB6F-4B1A-4301-9201-F0BB6B1E4317}"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{D0707C02-1360-4150-A0E9-6A8F9228536A}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{D0707C02-1360-4150-A0E9-6A8F9228536A}"/>
     <hyperlink ref="A10" r:id="rId8" display="https://www.amazon.com/gp/product/B00LM0U8I6/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{152A8B79-1A0B-419C-AD64-B530817CE239}"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://www.amazon.com/KY-016-Colors-Sensor-Arduino-Starter/dp/B0786CQD5P/ref=sr_1_1?keywords=KY-016&amp;qid=1572122200&amp;sr=8-1" xr:uid="{ADF5B442-5367-40FF-9B4B-13880D60C0EE}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{ADF5B442-5367-40FF-9B4B-13880D60C0EE}"/>
     <hyperlink ref="A12" r:id="rId10" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -856,7 +856,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,18 +936,18 @@
         <v>10</v>
       </c>
       <c r="D5" s="5">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E16" si="0">C5*D5</f>
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F16" si="1">E5/$B$2</f>
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,24 +1044,24 @@
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>4.99</v>
+        <v>1.78</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>14.97</v>
+        <v>1.78</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>1.4970000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1076,15 +1076,15 @@
         <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>2.4500000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>26.9</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>2.4500000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1123,15 +1123,15 @@
         <v>20</v>
       </c>
       <c r="D13" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1146,15 +1146,15 @@
         <v>10</v>
       </c>
       <c r="D14" s="5">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>49.5</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -1169,21 +1169,21 @@
         <v>10</v>
       </c>
       <c r="D15" s="5">
-        <v>5.6</v>
+        <v>6.34</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>63.4</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>6.34</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>20</v>
@@ -1192,18 +1192,18 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>0.10900000000000001</v>
+        <v>0.11699999999999999</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1214,10 +1214,10 @@
       <c r="E17" s="4"/>
       <c r="F17" s="11">
         <f>SUM(F5:F16)</f>
-        <v>60.478000000000009</v>
+        <v>66.186999999999998</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1226,13 +1226,13 @@
     <hyperlink ref="A7" r:id="rId2" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{65D287F0-F3C5-4BFC-B0EB-927314E9D7BC}"/>
     <hyperlink ref="A9" r:id="rId3" xr:uid="{4719F56A-F53F-4C54-AB15-D0404FA4C1F5}"/>
     <hyperlink ref="A8" r:id="rId4" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{EF83C615-A1D4-4987-BEAB-3BBEDC648166}"/>
-    <hyperlink ref="A10" r:id="rId5" display="M2.5 4mm thread + 6mm standoff screws" xr:uid="{28E7540A-6659-42EF-91A1-7D780614554D}"/>
+    <hyperlink ref="A10" r:id="rId5" display="M2.5 6mm thread + 6mm standoff screws (30 pieces)" xr:uid="{28E7540A-6659-42EF-91A1-7D780614554D}"/>
     <hyperlink ref="A14" r:id="rId6" xr:uid="{2A497A6C-5AAE-4A0E-8C0E-F12EF4CC82A4}"/>
-    <hyperlink ref="A15" r:id="rId7" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{F15FB45E-3203-4F2E-9725-87605B6ECD8B}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{0DC7749B-92C3-4CE4-B5B3-BBC86AC775DE}"/>
-    <hyperlink ref="A12" r:id="rId9" display="KY-016 indicator LED" xr:uid="{6A8AA35F-6C88-4BD6-B333-FC1A2CEEC938}"/>
-    <hyperlink ref="A13" r:id="rId10" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
-    <hyperlink ref="A16" r:id="rId11" display="Sticky back rubber feet" xr:uid="{B28C07E5-84E2-4983-86EE-C1315391039F}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{0DC7749B-92C3-4CE4-B5B3-BBC86AC775DE}"/>
+    <hyperlink ref="A12" r:id="rId8" display="KY-016 indicator LED" xr:uid="{6A8AA35F-6C88-4BD6-B333-FC1A2CEEC938}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
+    <hyperlink ref="A16" r:id="rId10" display="Sticky back rubber feet" xr:uid="{B28C07E5-84E2-4983-86EE-C1315391039F}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{90CF7BFE-57E1-4497-A804-32CA00EFB3EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>

--- a/docs/build_instructions_standard.xlsx
+++ b/docs/build_instructions_standard.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="444" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8698AC21-18F1-4DB7-91ED-A501E6B9884F}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FC29E3D-8C47-45A0-8B96-DBA66387DCD9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="7" r:id="rId1"/>
@@ -157,13 +157,13 @@
     <t>Or Amazon B07MDXBT87 or other physically small USB drive</t>
   </si>
   <si>
-    <t>This is for a large kit of sensors. Or search KY-016, but note that almost all other sellers are in China.</t>
-  </si>
-  <si>
     <t>Or order from Ponoko for ~$35</t>
   </si>
   <si>
     <t>M2.5 6mm thread + 6mm standoff screws (100 pieces)</t>
+  </si>
+  <si>
+    <t>This is for a large kit of sensors, you only need KY-016. Or search KY-016, but note that almost all other sellers are in China.</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E12D50-D309-4C94-883F-34F0FBB95462}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,7 +805,7 @@
         <v>17.989999999999998</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35BB53-6D32-4D96-AF53-91579E0632D6}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +947,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>

--- a/docs/build_instructions_standard.xlsx
+++ b/docs/build_instructions_standard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="445" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FC29E3D-8C47-45A0-8B96-DBA66387DCD9}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5FB1701-8FBD-4EF4-AC23-85DD750CED2A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/build_instructions_standard.xlsx
+++ b/docs/build_instructions_standard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="448" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5FB1701-8FBD-4EF4-AC23-85DD750CED2A}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1004DDE0-9C66-4648-BA3C-12D95AF151FE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Female-female jumper wires</t>
   </si>
@@ -163,7 +163,10 @@
     <t>M2.5 6mm thread + 6mm standoff screws (100 pieces)</t>
   </si>
   <si>
-    <t>This is for a large kit of sensors, you only need KY-016. Or search KY-016, but note that almost all other sellers are in China.</t>
+    <t>Banggood</t>
+  </si>
+  <si>
+    <t>ALLOW 3+ WEEKS TO ARRIVE FROM CHINA. Due to COVID, it's hard to find these in the US. You can get it quickly from Amazon B07KJYR8K1, but costs $18.</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -324,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,7 +648,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +656,7 @@
     <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -676,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>60.01</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
@@ -795,17 +801,17 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>17.989999999999998</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -827,7 +833,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="11">
         <f>SUM(C2:C12)</f>
-        <v>138.82</v>
+        <v>129.77000000000001</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>38</v>
@@ -843,8 +849,8 @@
     <hyperlink ref="A8" r:id="rId6" xr:uid="{AE4ABB6F-4B1A-4301-9201-F0BB6B1E4317}"/>
     <hyperlink ref="A9" r:id="rId7" xr:uid="{D0707C02-1360-4150-A0E9-6A8F9228536A}"/>
     <hyperlink ref="A10" r:id="rId8" display="https://www.amazon.com/gp/product/B00LM0U8I6/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{152A8B79-1A0B-419C-AD64-B530817CE239}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{ADF5B442-5367-40FF-9B4B-13880D60C0EE}"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{289E8A03-1043-459F-A8C7-E23308C65DB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>

--- a/docs/build_instructions_standard.xlsx
+++ b/docs/build_instructions_standard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="453" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1004DDE0-9C66-4648-BA3C-12D95AF151FE}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAF900B2-A2BD-42B8-B27D-C6F8335B8F95}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -327,9 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,7 +798,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">

--- a/docs/build_instructions_standard.xlsx
+++ b/docs/build_instructions_standard.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="454" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAF900B2-A2BD-42B8-B27D-C6F8335B8F95}"/>
+  <xr:revisionPtr revIDLastSave="477" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C8515ACA-BA68-4955-85D9-842BF2DDF9CD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Female-female jumper wires</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>ALLOW 3+ WEEKS TO ARRIVE FROM CHINA. Due to COVID, it's hard to find these in the US. You can get it quickly from Amazon B07KJYR8K1, but costs $18.</t>
+  </si>
+  <si>
+    <t>16GB or greater micro SD card</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -287,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -327,6 +338,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E12D50-D309-4C94-883F-34F0FBB95462}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,21 +763,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>4.32</v>
+        <f>0.89*8</f>
+        <v>7.12</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
+      <c r="A8" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>4.95</v>
+        <v>7.49</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>35</v>
@@ -777,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>41</v>
@@ -791,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="5">
-        <v>5.59</v>
+        <v>6.59</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
@@ -805,7 +820,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>4.2699999999999996</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>45</v>
@@ -830,7 +845,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="11">
         <f>SUM(C2:C12)</f>
-        <v>129.77000000000001</v>
+        <v>137.30000000000001</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>38</v>
@@ -839,7 +854,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{13786A80-3679-43A9-B8B9-7C75125C477D}"/>
-    <hyperlink ref="A4" r:id="rId2" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{F1D856E2-A362-406F-AEE5-44CD93F13CDC}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{F1D856E2-A362-406F-AEE5-44CD93F13CDC}"/>
     <hyperlink ref="A5" r:id="rId3" display="http://www.newark.com/adafruit/266/female-to-female-jumper-wires/dp/42X1200" xr:uid="{2CE09758-19BE-4D8E-8428-CAB4CD7682C3}"/>
     <hyperlink ref="A6" r:id="rId4" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{B5CB0BD9-1755-4BCA-82AA-B620DFC77645}"/>
     <hyperlink ref="A7" r:id="rId5" display="https://www.newark.com/raf-electronic-hardware/m2102-2545-al/spacer-standoff-hex-aluminium/dp/27T7975?st=M2.5%20standoff" xr:uid="{F1FA4C82-9DB6-4D44-AEF0-A1FF9DA0D698}"/>
@@ -858,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35BB53-6D32-4D96-AF53-91579E0632D6}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,15 +1025,15 @@
         <v>10</v>
       </c>
       <c r="D8" s="5">
-        <v>2.69</v>
+        <v>2.42</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>26.9</v>
+        <v>24.2</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>2.69</v>
+        <v>2.42</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1056,15 +1071,15 @@
         <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>0.17799999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1079,15 +1094,15 @@
         <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1149,15 +1164,15 @@
         <v>10</v>
       </c>
       <c r="D14" s="5">
-        <v>4.95</v>
+        <v>7.49</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>49.5</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>4.95</v>
+        <v>7.49</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -1172,15 +1187,15 @@
         <v>10</v>
       </c>
       <c r="D15" s="5">
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>63.4</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -1195,15 +1210,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>1.17</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>0.11699999999999999</v>
+        <v>0.10900000000000001</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>40</v>
@@ -1217,7 +1232,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="11">
         <f>SUM(F5:F16)</f>
-        <v>66.186999999999998</v>
+        <v>69.418999999999997</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>26</v>
@@ -1226,7 +1241,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{1BFBFBD1-4E41-4D41-B4BF-DE82F6FFA9D9}"/>
-    <hyperlink ref="A7" r:id="rId2" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{65D287F0-F3C5-4BFC-B0EB-927314E9D7BC}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{65D287F0-F3C5-4BFC-B0EB-927314E9D7BC}"/>
     <hyperlink ref="A9" r:id="rId3" xr:uid="{4719F56A-F53F-4C54-AB15-D0404FA4C1F5}"/>
     <hyperlink ref="A8" r:id="rId4" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{EF83C615-A1D4-4987-BEAB-3BBEDC648166}"/>
     <hyperlink ref="A10" r:id="rId5" display="M2.5 6mm thread + 6mm standoff screws (30 pieces)" xr:uid="{28E7540A-6659-42EF-91A1-7D780614554D}"/>
